--- a/results/comparaison/GM/retardance/mean_raw_data.xlsx
+++ b/results/comparaison/GM/retardance/mean_raw_data.xlsx
@@ -679,716 +679,830 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.15224618146399</v>
+        <v>19.96396429630763</v>
       </c>
       <c r="C2">
-        <v>9.969920916647432</v>
+        <v>5.648078747451885</v>
       </c>
       <c r="D2">
-        <v>10.98026005964433</v>
+        <v>4.901582201616671</v>
       </c>
       <c r="E2">
-        <v>11.03216439977985</v>
+        <v>16.98312723061248</v>
       </c>
       <c r="F2">
-        <v>9.420035786243592</v>
+        <v>8.350015248319984</v>
       </c>
       <c r="G2">
-        <v>11.23963267093246</v>
+        <v>9.081039579110625</v>
       </c>
       <c r="H2">
-        <v>16.64476856614125</v>
+        <v>4.324168192473842</v>
       </c>
       <c r="I2">
-        <v>6.135062848582283</v>
+        <v>14.96657778441724</v>
       </c>
       <c r="J2">
-        <v>7.305900310640798</v>
+        <v>9.777208823433808</v>
       </c>
       <c r="K2">
-        <v>11.86338391451684</v>
+        <v>9.060301177830477</v>
       </c>
       <c r="L2">
-        <v>6.368972933350741</v>
+        <v>7.739135370577236</v>
       </c>
       <c r="M2">
-        <v>8.622330024989067</v>
+        <v>11.73099918654943</v>
       </c>
       <c r="N2">
-        <v>10.71788472891987</v>
+        <v>16.54333903974864</v>
       </c>
       <c r="O2">
-        <v>23.77161002643213</v>
+        <v>5.801016127420912</v>
       </c>
       <c r="P2">
-        <v>11.46162846806009</v>
+        <v>6.966973524125406</v>
       </c>
       <c r="Q2">
-        <v>9.109497292213581</v>
+        <v>10.50520047859374</v>
       </c>
       <c r="R2">
-        <v>8.511386234070056</v>
+        <v>23.69961110103434</v>
       </c>
       <c r="S2">
-        <v>11.33529956667909</v>
+        <v>11.22855563570716</v>
       </c>
       <c r="T2">
-        <v>5.253890152850485</v>
+        <v>13.614370712694</v>
       </c>
       <c r="U2">
-        <v>9.293890094477971</v>
+        <v>5.45136964441527</v>
       </c>
       <c r="V2">
-        <v>5.273350261893284</v>
+        <v>11.38825743770445</v>
       </c>
       <c r="W2">
-        <v>19.51343742024002</v>
+        <v>10.54979944255312</v>
       </c>
       <c r="X2">
-        <v>5.113490928757</v>
+        <v>15.46594628332468</v>
       </c>
       <c r="Y2">
-        <v>8.261026604192574</v>
+        <v>10.80223487297128</v>
       </c>
       <c r="Z2">
-        <v>15.13439877591022</v>
+        <v>7.323563021552014</v>
       </c>
       <c r="AA2">
-        <v>7.364873356909459</v>
+        <v>10.22394316161169</v>
       </c>
       <c r="AB2">
-        <v>4.6811183918457</v>
+        <v>23.58803054178894</v>
       </c>
       <c r="AC2">
-        <v>8.838981253532237</v>
+        <v>3.954521131296697</v>
       </c>
       <c r="AD2">
-        <v>11.08510651835221</v>
+        <v>23.73043369791889</v>
       </c>
       <c r="AE2">
-        <v>5.332291480628733</v>
+        <v>5.9803545571937</v>
       </c>
       <c r="AF2">
-        <v>9.30069688455132</v>
+        <v>4.279519496247889</v>
       </c>
       <c r="AG2">
-        <v>10.55290586318618</v>
+        <v>8.427779616213439</v>
       </c>
       <c r="AH2">
-        <v>9.47701957255344</v>
+        <v>6.151266369408505</v>
       </c>
       <c r="AI2">
-        <v>6.105944824483999</v>
+        <v>7.203216438960148</v>
       </c>
       <c r="AJ2">
-        <v>8.450330966200804</v>
+        <v>12.93767531713165</v>
       </c>
       <c r="AK2">
-        <v>5.586558082096527</v>
+        <v>6.014919445419201</v>
       </c>
       <c r="AL2">
-        <v>12.61438841223525</v>
+        <v>12.12883584728498</v>
       </c>
       <c r="AM2">
-        <v>5.236076797438586</v>
+        <v>14.78517027364935</v>
       </c>
       <c r="AN2">
-        <v>23.93220996802658</v>
+        <v>5.982289188355256</v>
       </c>
       <c r="AO2">
-        <v>9.171835294936354</v>
+        <v>19.31240947560746</v>
       </c>
       <c r="AP2">
-        <v>5.782286878083852</v>
+        <v>6.930082037532912</v>
       </c>
       <c r="AQ2">
-        <v>9.352974821343553</v>
+        <v>6.327062956948457</v>
       </c>
       <c r="AR2">
-        <v>4.950269996037512</v>
+        <v>18.51832752736757</v>
       </c>
       <c r="AS2">
-        <v>23.77419559813598</v>
+        <v>3.972928760055934</v>
       </c>
       <c r="AT2">
-        <v>13.95022709759426</v>
+        <v>3.463175718753329</v>
       </c>
       <c r="AU2">
-        <v>21.75593834328016</v>
+        <v>5.291837780275552</v>
       </c>
       <c r="AV2">
-        <v>4.320080848842308</v>
+        <v>12.63760119058515</v>
       </c>
       <c r="AW2">
-        <v>14.24095157989957</v>
+        <v>5.621042573368455</v>
       </c>
       <c r="AX2">
-        <v>11.03141161113675</v>
+        <v>10.92659856110651</v>
       </c>
       <c r="AY2">
-        <v>5.093501916159565</v>
+        <v>7.719748625783138</v>
       </c>
       <c r="AZ2">
-        <v>6.886795981769653</v>
+        <v>5.158911589863862</v>
       </c>
       <c r="BA2">
-        <v>4.896199051475303</v>
+        <v>11.55811689651171</v>
       </c>
       <c r="BB2">
-        <v>11.21549535200617</v>
+        <v>5.716120920164085</v>
       </c>
       <c r="BC2">
-        <v>10.04770073322335</v>
+        <v>9.199284550796763</v>
       </c>
       <c r="BD2">
-        <v>4.112024866672336</v>
+        <v>9.835869857910083</v>
       </c>
       <c r="BE2">
-        <v>10.209655839401</v>
+        <v>4.237958824210977</v>
       </c>
       <c r="BF2">
-        <v>13.62237385855448</v>
+        <v>9.273278923321516</v>
       </c>
       <c r="BG2">
-        <v>6.939620074490343</v>
+        <v>4.3428584271619</v>
       </c>
       <c r="BH2">
-        <v>18.67986824868591</v>
+        <v>3.393046456950465</v>
       </c>
       <c r="BI2">
-        <v>10.792804158386</v>
+        <v>3.300117229012682</v>
       </c>
       <c r="BJ2">
-        <v>8.693022716668533</v>
+        <v>15.42679773668998</v>
       </c>
       <c r="BK2">
-        <v>5.408909427215604</v>
+        <v>7.204214647156689</v>
       </c>
       <c r="BL2">
-        <v>6.427779222806601</v>
+        <v>11.472447032625</v>
       </c>
       <c r="BM2">
-        <v>14.33112670094769</v>
+        <v>7.195229239655095</v>
       </c>
       <c r="BN2">
-        <v>7.563957255825637</v>
+        <v>8.456890708746924</v>
       </c>
       <c r="BO2">
-        <v>7.503735416038544</v>
+        <v>4.885405721377507</v>
       </c>
       <c r="BP2">
-        <v>14.06573018169807</v>
+        <v>3.562136898969716</v>
       </c>
       <c r="BQ2">
-        <v>6.617293585751201</v>
+        <v>6.010918769908731</v>
       </c>
       <c r="BR2">
-        <v>11.11017297116138</v>
+        <v>4.003950820616072</v>
       </c>
       <c r="BS2">
-        <v>12.79019364806798</v>
+        <v>12.51451478308572</v>
       </c>
       <c r="BT2">
-        <v>24.13498358652409</v>
+        <v>5.541998770753601</v>
       </c>
       <c r="BU2">
-        <v>13.72154972858497</v>
+        <v>13.75159895432906</v>
       </c>
       <c r="BV2">
-        <v>23.21530968063582</v>
+        <v>5.108407655678327</v>
       </c>
       <c r="BW2">
-        <v>9.788313463057756</v>
+        <v>5.929864137704953</v>
       </c>
       <c r="BX2">
-        <v>9.368122603584281</v>
+        <v>13.09126124604071</v>
       </c>
       <c r="BY2">
-        <v>11.08951500315244</v>
+        <v>5.834032490364175</v>
       </c>
       <c r="BZ2">
-        <v>9.449238319710869</v>
+        <v>4.848518837484019</v>
       </c>
       <c r="CA2">
-        <v>8.29970410668137</v>
+        <v>10.15319422887065</v>
       </c>
       <c r="CB2">
-        <v>6.145340979657108</v>
+        <v>10.61521799086753</v>
       </c>
       <c r="CC2">
-        <v>15.23184195696681</v>
+        <v>8.053162884002548</v>
       </c>
       <c r="CD2">
-        <v>7.360499153568583</v>
+        <v>10.46650110881111</v>
       </c>
       <c r="CE2">
-        <v>15.27079372356245</v>
+        <v>5.48821638178234</v>
       </c>
       <c r="CF2">
-        <v>7.604885320727716</v>
+        <v>9.174562745815145</v>
       </c>
       <c r="CG2">
-        <v>5.258485764448039</v>
+        <v>8.09748948443616</v>
       </c>
       <c r="CH2">
-        <v>10.15781917299034</v>
+        <v>4.46646179235516</v>
       </c>
       <c r="CI2">
-        <v>5.876981816612772</v>
+        <v>5.529022486269176</v>
       </c>
       <c r="CJ2">
-        <v>7.26733312603653</v>
+        <v>7.916459458183194</v>
       </c>
       <c r="CK2">
-        <v>12.64655390818089</v>
+        <v>9.884733235914776</v>
       </c>
       <c r="CL2">
-        <v>9.04065480947366</v>
+        <v>4.088126569591374</v>
       </c>
       <c r="CM2">
-        <v>9.449814099132343</v>
+        <v>3.326291002165159</v>
       </c>
       <c r="CN2">
-        <v>5.29498819002489</v>
+        <v>7.231007958654837</v>
       </c>
       <c r="CO2">
-        <v>4.614717085952913</v>
+        <v>9.189141341485474</v>
       </c>
       <c r="CP2">
-        <v>6.288703992876042</v>
+        <v>6.938833349337966</v>
       </c>
       <c r="CQ2">
-        <v>8.253416709162494</v>
+        <v>5.907837869178413</v>
       </c>
       <c r="CR2">
-        <v>8.466248672300621</v>
+        <v>4.748328890200748</v>
       </c>
       <c r="CS2">
-        <v>5.506850053211286</v>
+        <v>7.068852780302585</v>
       </c>
       <c r="CT2">
-        <v>8.973619487590712</v>
+        <v>9.414670785350451</v>
       </c>
       <c r="CU2">
-        <v>5.677371338615422</v>
+        <v>10.3585342084252</v>
       </c>
       <c r="CV2">
-        <v>11.63085220492892</v>
+        <v>6.495536705986257</v>
       </c>
       <c r="CW2">
-        <v>5.337866725478157</v>
+        <v>11.41149038254699</v>
       </c>
     </row>
     <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>8.147730373191051</v>
-      </c>
       <c r="C3">
-        <v>5.049482968681229</v>
+        <v>6.225618887439493</v>
       </c>
       <c r="D3">
-        <v>6.040421564611022</v>
+        <v>4.72792334254044</v>
       </c>
       <c r="E3">
-        <v>4.725215408281837</v>
-      </c>
-      <c r="F3">
-        <v>5.484333363667114</v>
-      </c>
-      <c r="G3">
-        <v>5.340359945190396</v>
+        <v>7.748277899072846</v>
       </c>
       <c r="H3">
-        <v>5.185913290032886</v>
+        <v>10.71783175081632</v>
       </c>
       <c r="I3">
-        <v>7.902621283758971</v>
+        <v>4.668699263693835</v>
+      </c>
+      <c r="J3">
+        <v>4.35933414100437</v>
+      </c>
+      <c r="K3">
+        <v>4.851295770392461</v>
       </c>
       <c r="L3">
-        <v>4.228021513180797</v>
+        <v>5.967691960560709</v>
+      </c>
+      <c r="M3">
+        <v>4.707040009731474</v>
       </c>
       <c r="N3">
-        <v>6.505080383998004</v>
+        <v>4.572585588530494</v>
+      </c>
+      <c r="O3">
+        <v>7.589635491108586</v>
       </c>
       <c r="P3">
-        <v>5.237818956613013</v>
-      </c>
-      <c r="R3">
-        <v>4.726639162701306</v>
-      </c>
-      <c r="S3">
-        <v>8.472748202643503</v>
+        <v>5.333971306709125</v>
+      </c>
+      <c r="Q3">
+        <v>5.945538951735851</v>
       </c>
       <c r="T3">
-        <v>3.84791398918134</v>
+        <v>13.16610891822227</v>
+      </c>
+      <c r="U3">
+        <v>5.074434141708548</v>
       </c>
       <c r="V3">
-        <v>5.428067109458993</v>
-      </c>
-      <c r="X3">
-        <v>11.1130883621763</v>
+        <v>4.46880665217386</v>
+      </c>
+      <c r="W3">
+        <v>6.078083397304711</v>
       </c>
       <c r="Y3">
-        <v>5.006162867365952</v>
+        <v>10.62670904422502</v>
       </c>
       <c r="Z3">
-        <v>5.302980142713066</v>
-      </c>
-      <c r="AB3">
-        <v>4.209838916181372</v>
+        <v>5.192471632390218</v>
+      </c>
+      <c r="AA3">
+        <v>7.042989413422676</v>
       </c>
       <c r="AC3">
-        <v>4.637120401801153</v>
+        <v>4.822844311380337</v>
       </c>
       <c r="AD3">
-        <v>4.625923077450502</v>
-      </c>
-      <c r="AE3">
-        <v>6.611665751258588</v>
+        <v>21.55063417168733</v>
       </c>
       <c r="AF3">
-        <v>7.68890704292338</v>
+        <v>6.702943666759941</v>
       </c>
       <c r="AG3">
-        <v>4.981073765953266</v>
-      </c>
-      <c r="AH3">
-        <v>3.639799560619756</v>
+        <v>10.71136188047773</v>
       </c>
       <c r="AI3">
-        <v>5.195560940523084</v>
+        <v>5.184563638764788</v>
       </c>
       <c r="AJ3">
-        <v>7.714358597896156</v>
+        <v>6.712401222418977</v>
+      </c>
+      <c r="AK3">
+        <v>5.196802294744444</v>
       </c>
       <c r="AL3">
-        <v>3.281318534191084</v>
+        <v>19.49457683859681</v>
+      </c>
+      <c r="AM3">
+        <v>6.487766742717542</v>
       </c>
       <c r="AN3">
-        <v>23.32255186306348</v>
+        <v>4.019954163245174</v>
       </c>
       <c r="AO3">
-        <v>5.657887234934145</v>
+        <v>17.93850013565987</v>
       </c>
       <c r="AP3">
-        <v>8.990605308545668</v>
+        <v>5.023559841416664</v>
       </c>
       <c r="AQ3">
-        <v>19.29360301607261</v>
+        <v>3.2592948145398</v>
       </c>
       <c r="AR3">
-        <v>4.487389418577231</v>
+        <v>3.921398681615707</v>
       </c>
       <c r="AT3">
-        <v>8.635296014284405</v>
+        <v>4.026100449931709</v>
+      </c>
+      <c r="AU3">
+        <v>4.054624319629622</v>
       </c>
       <c r="AV3">
-        <v>5.972722834833844</v>
+        <v>4.653264478919271</v>
       </c>
       <c r="AW3">
-        <v>17.43969252217048</v>
+        <v>8.79644011518997</v>
       </c>
       <c r="AX3">
-        <v>5.731895239766727</v>
+        <v>2.546003978016806</v>
       </c>
       <c r="AY3">
-        <v>3.271653327914049</v>
-      </c>
-      <c r="AZ3">
-        <v>7.006384528800826</v>
+        <v>14.61275239286062</v>
       </c>
       <c r="BA3">
-        <v>5.839974605999304</v>
+        <v>13.46100277350367</v>
       </c>
       <c r="BB3">
-        <v>10.33808834065484</v>
+        <v>6.667317662516411</v>
       </c>
       <c r="BC3">
-        <v>7.728338452188624</v>
+        <v>9.938671740761276</v>
       </c>
       <c r="BD3">
-        <v>4.339375451393781</v>
+        <v>3.53887487218544</v>
       </c>
       <c r="BE3">
-        <v>6.111330034800633</v>
+        <v>3.101388107935615</v>
       </c>
       <c r="BF3">
-        <v>10.33201376519503</v>
-      </c>
-      <c r="BG3">
-        <v>5.937524899113277</v>
+        <v>3.021465792570539</v>
       </c>
       <c r="BH3">
-        <v>7.681036547283191</v>
+        <v>4.123495344366996</v>
       </c>
       <c r="BI3">
-        <v>4.143151330643591</v>
+        <v>3.380853095288817</v>
       </c>
       <c r="BJ3">
-        <v>5.801888207473738</v>
+        <v>7.949325232888523</v>
+      </c>
+      <c r="BK3">
+        <v>5.682709815289069</v>
       </c>
       <c r="BL3">
-        <v>7.073162008359176</v>
-      </c>
-      <c r="BM3">
-        <v>5.420235156639509</v>
+        <v>4.125840973185816</v>
+      </c>
+      <c r="BN3">
+        <v>7.771887777664459</v>
+      </c>
+      <c r="BO3">
+        <v>3.755616876869405</v>
+      </c>
+      <c r="BP3">
+        <v>2.671049285137711</v>
       </c>
       <c r="BQ3">
-        <v>4.813896315103598</v>
+        <v>3.079862889445463</v>
       </c>
       <c r="BR3">
-        <v>5.36794395607099</v>
+        <v>4.677647364477005</v>
       </c>
       <c r="BS3">
-        <v>10.09370190511329</v>
+        <v>5.339628248963446</v>
       </c>
       <c r="BT3">
-        <v>5.121251987464391</v>
+        <v>6.590799407936728</v>
       </c>
       <c r="BU3">
-        <v>6.341110145718119</v>
+        <v>6.072662688520815</v>
       </c>
       <c r="BV3">
-        <v>4.751993416237609</v>
+        <v>4.138590859004824</v>
       </c>
       <c r="BW3">
-        <v>4.52683055875405</v>
+        <v>5.92598762404053</v>
       </c>
       <c r="BX3">
-        <v>5.681820835172772</v>
-      </c>
-      <c r="CA3">
-        <v>4.600044438601268</v>
+        <v>3.804697984882981</v>
+      </c>
+      <c r="BY3">
+        <v>3.844313102264297</v>
+      </c>
+      <c r="BZ3">
+        <v>3.851619338596389</v>
       </c>
       <c r="CB3">
-        <v>4.273866175517159</v>
+        <v>5.234065909189542</v>
+      </c>
+      <c r="CC3">
+        <v>2.373221542281607</v>
       </c>
       <c r="CD3">
-        <v>5.432217021776072</v>
+        <v>3.465349947410866</v>
       </c>
       <c r="CE3">
-        <v>6.927393515913993</v>
+        <v>3.615550470105252</v>
       </c>
       <c r="CF3">
-        <v>4.055468657087383</v>
+        <v>2.948116170747987</v>
+      </c>
+      <c r="CG3">
+        <v>4.61996030703409</v>
       </c>
       <c r="CH3">
-        <v>3.629694523917559</v>
+        <v>3.393889788259296</v>
+      </c>
+      <c r="CI3">
+        <v>2.280578860118103</v>
       </c>
       <c r="CK3">
-        <v>6.216031245120568</v>
+        <v>9.005188402880425</v>
+      </c>
+      <c r="CL3">
+        <v>3.671010138248841</v>
       </c>
       <c r="CM3">
-        <v>9.291980530042515</v>
+        <v>3.325197286199047</v>
       </c>
       <c r="CN3">
-        <v>4.299282303578251</v>
+        <v>3.343990267184105</v>
+      </c>
+      <c r="CO3">
+        <v>5.673322133560859</v>
       </c>
       <c r="CP3">
-        <v>6.19638557874284</v>
+        <v>4.622874463354576</v>
+      </c>
+      <c r="CQ3">
+        <v>3.65182420071646</v>
+      </c>
+      <c r="CR3">
+        <v>2.933080378284209</v>
       </c>
       <c r="CS3">
-        <v>4.047897400551392</v>
+        <v>2.663051753055792</v>
+      </c>
+      <c r="CT3">
+        <v>3.595662520545624</v>
+      </c>
+      <c r="CU3">
+        <v>4.224997052550542</v>
+      </c>
+      <c r="CV3">
+        <v>5.487617143855794</v>
+      </c>
+      <c r="CW3">
+        <v>7.473709422903053</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>6.1512808930737</v>
+      </c>
       <c r="C4">
-        <v>5.361435832510735</v>
+        <v>5.410598702136434</v>
       </c>
       <c r="D4">
-        <v>5.746344877977779</v>
+        <v>5.363627955797667</v>
       </c>
       <c r="E4">
-        <v>4.97713957697083</v>
-      </c>
-      <c r="F4">
-        <v>6.376512962593588</v>
+        <v>8.445529959967581</v>
       </c>
       <c r="H4">
-        <v>5.792121407488197</v>
+        <v>11.66657907630099</v>
       </c>
       <c r="I4">
-        <v>7.600825237623559</v>
+        <v>4.455262160280891</v>
+      </c>
+      <c r="J4">
+        <v>4.398648977196095</v>
+      </c>
+      <c r="K4">
+        <v>5.643775078693674</v>
       </c>
       <c r="L4">
-        <v>5.096232012975022</v>
+        <v>5.380819991621037</v>
+      </c>
+      <c r="M4">
+        <v>5.074614541097985</v>
       </c>
       <c r="N4">
-        <v>6.998295731818412</v>
+        <v>5.044742835520705</v>
+      </c>
+      <c r="O4">
+        <v>7.258444791070534</v>
+      </c>
+      <c r="P4">
+        <v>5.126981804219775</v>
       </c>
       <c r="Q4">
-        <v>6.279810120089961</v>
-      </c>
-      <c r="R4">
-        <v>5.701883614340921</v>
-      </c>
-      <c r="S4">
-        <v>9.655767724945935</v>
+        <v>6.533506566556733</v>
       </c>
       <c r="T4">
-        <v>3.493301066422196</v>
+        <v>11.53003693566252</v>
+      </c>
+      <c r="U4">
+        <v>4.193604336285153</v>
       </c>
       <c r="V4">
-        <v>5.702221663904079</v>
+        <v>4.463394729159863</v>
       </c>
       <c r="W4">
-        <v>7.241717287274418</v>
-      </c>
-      <c r="X4">
-        <v>12.1790324068966</v>
-      </c>
-      <c r="Y4">
-        <v>5.876369151437084</v>
+        <v>7.293020484897568</v>
+      </c>
+      <c r="Z4">
+        <v>6.14586117461227</v>
+      </c>
+      <c r="AA4">
+        <v>8.306284043470551</v>
       </c>
       <c r="AC4">
-        <v>4.869678121684287</v>
-      </c>
-      <c r="AE4">
-        <v>8.421809430265313</v>
+        <v>6.240023527533096</v>
+      </c>
+      <c r="AD4">
+        <v>18.94041970605864</v>
       </c>
       <c r="AF4">
-        <v>11.03710736659177</v>
-      </c>
-      <c r="AH4">
-        <v>4.382171042973767</v>
+        <v>7.828582887257324</v>
+      </c>
+      <c r="AG4">
+        <v>8.857492735764886</v>
       </c>
       <c r="AI4">
-        <v>5.380578822704711</v>
+        <v>5.438356897781549</v>
       </c>
       <c r="AJ4">
-        <v>9.502209222597582</v>
+        <v>6.19787041201731</v>
+      </c>
+      <c r="AK4">
+        <v>6.276418779188787</v>
       </c>
       <c r="AL4">
-        <v>3.622798880724823</v>
+        <v>22.46595668692553</v>
+      </c>
+      <c r="AM4">
+        <v>6.022565077453714</v>
+      </c>
+      <c r="AN4">
+        <v>5.79389208085163</v>
       </c>
       <c r="AO4">
-        <v>8.46646348822985</v>
+        <v>15.73537944779817</v>
       </c>
       <c r="AP4">
-        <v>9.552453653847603</v>
+        <v>5.719092122395453</v>
       </c>
       <c r="AQ4">
-        <v>21.15753146047285</v>
+        <v>6.08960253957191</v>
       </c>
       <c r="AR4">
-        <v>5.154637004619725</v>
-      </c>
-      <c r="AS4">
-        <v>10.42231135026734</v>
+        <v>4.243117340708618</v>
       </c>
       <c r="AT4">
-        <v>8.366584880494209</v>
+        <v>4.766559258599673</v>
+      </c>
+      <c r="AU4">
+        <v>3.791405675901963</v>
       </c>
       <c r="AV4">
-        <v>6.856264437760399</v>
+        <v>4.213686005001103</v>
       </c>
       <c r="AW4">
-        <v>16.87609192938002</v>
+        <v>8.559600233373095</v>
       </c>
       <c r="AX4">
-        <v>8.111973887209304</v>
+        <v>3.475973711376529</v>
+      </c>
+      <c r="AY4">
+        <v>13.10677369773233</v>
       </c>
       <c r="AZ4">
-        <v>7.258204532480538</v>
+        <v>2.332004165132142</v>
       </c>
       <c r="BA4">
-        <v>5.890219542181202</v>
+        <v>13.8643022359993</v>
       </c>
       <c r="BB4">
-        <v>8.722948756647556</v>
+        <v>7.732280840475695</v>
       </c>
       <c r="BC4">
-        <v>8.002224624972706</v>
+        <v>9.949382058853136</v>
       </c>
       <c r="BD4">
-        <v>6.313448832863706</v>
+        <v>2.733157697823186</v>
       </c>
       <c r="BE4">
-        <v>7.512510542043021</v>
+        <v>3.840883183711395</v>
       </c>
       <c r="BF4">
-        <v>7.964919332127527</v>
-      </c>
-      <c r="BG4">
-        <v>4.81392447237184</v>
+        <v>4.240406220616101</v>
       </c>
       <c r="BH4">
-        <v>6.64068668819215</v>
+        <v>6.104343053173116</v>
       </c>
       <c r="BI4">
-        <v>5.070098509194845</v>
+        <v>4.286107974262575</v>
       </c>
       <c r="BJ4">
-        <v>5.921991194812684</v>
+        <v>7.289727889648542</v>
+      </c>
+      <c r="BK4">
+        <v>4.452432737851262</v>
       </c>
       <c r="BL4">
-        <v>6.78688564209599</v>
+        <v>3.595841318345764</v>
       </c>
       <c r="BM4">
-        <v>4.933212488569459</v>
+        <v>4.560135009615597</v>
       </c>
       <c r="BN4">
-        <v>6.5323814783233</v>
+        <v>8.547692303352177</v>
       </c>
       <c r="BO4">
-        <v>4.79717821048182</v>
+        <v>3.641172083883312</v>
+      </c>
+      <c r="BP4">
+        <v>4.186873473711802</v>
+      </c>
+      <c r="BQ4">
+        <v>2.900907452292245</v>
       </c>
       <c r="BR4">
-        <v>5.097933153162527</v>
+        <v>4.881854277300896</v>
       </c>
       <c r="BS4">
-        <v>9.881347126919154</v>
+        <v>3.754621600948669</v>
+      </c>
+      <c r="BT4">
+        <v>6.686635742523712</v>
       </c>
       <c r="BU4">
-        <v>4.972582170786122</v>
+        <v>4.663560959205527</v>
+      </c>
+      <c r="BV4">
+        <v>4.613720969425746</v>
+      </c>
+      <c r="BW4">
+        <v>5.448995676355247</v>
       </c>
       <c r="BX4">
-        <v>4.880925888837361</v>
+        <v>3.362791373782727</v>
       </c>
       <c r="BY4">
-        <v>17.36036954603927</v>
-      </c>
-      <c r="CA4">
-        <v>4.448867229243786</v>
+        <v>4.57112891133596</v>
+      </c>
+      <c r="BZ4">
+        <v>3.817209378621741</v>
+      </c>
+      <c r="CB4">
+        <v>5.236744220143106</v>
+      </c>
+      <c r="CC4">
+        <v>1.925139947061037</v>
+      </c>
+      <c r="CD4">
+        <v>3.017086959087995</v>
       </c>
       <c r="CE4">
-        <v>8.08841881972171</v>
+        <v>3.862160415305322</v>
       </c>
       <c r="CF4">
-        <v>4.111295185105122</v>
+        <v>2.919610379335349</v>
+      </c>
+      <c r="CG4">
+        <v>5.003824167536385</v>
       </c>
       <c r="CH4">
-        <v>3.769213128282922</v>
+        <v>3.424997943363227</v>
       </c>
       <c r="CI4">
-        <v>3.309099390161844</v>
+        <v>2.164261173527825</v>
       </c>
       <c r="CK4">
-        <v>6.12604639897547</v>
+        <v>8.416312904853067</v>
       </c>
       <c r="CL4">
-        <v>5.228523465969096</v>
+        <v>3.883065187742662</v>
       </c>
       <c r="CM4">
-        <v>8.707313842387482</v>
+        <v>3.856191307245699</v>
       </c>
       <c r="CN4">
-        <v>4.289582133992422</v>
+        <v>3.916816728288345</v>
+      </c>
+      <c r="CO4">
+        <v>7.327485019013485</v>
       </c>
       <c r="CP4">
-        <v>7.654799394166199</v>
+        <v>5.679637517023171</v>
+      </c>
+      <c r="CQ4">
+        <v>5.379299490110564</v>
+      </c>
+      <c r="CR4">
+        <v>3.709443707504499</v>
       </c>
       <c r="CS4">
-        <v>4.36852582944987</v>
+        <v>2.936838895509546</v>
+      </c>
+      <c r="CT4">
+        <v>2.757936867621405</v>
       </c>
       <c r="CU4">
-        <v>7.077046496778283</v>
+        <v>4.928721052664157</v>
+      </c>
+      <c r="CV4">
+        <v>5.662675481118924</v>
+      </c>
+      <c r="CW4">
+        <v>12.05899595052678</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.063775106762125</v>
+        <v>6.35558566107801</v>
       </c>
       <c r="C5">
-        <v>6.633628553236711</v>
+        <v>7.800244914510916</v>
       </c>
       <c r="D5">
-        <v>6.348326064414915</v>
-      </c>
-      <c r="F5">
-        <v>6.045780386499211</v>
-      </c>
-      <c r="G5">
-        <v>6.471767873658401</v>
+        <v>4.793193936536342</v>
+      </c>
+      <c r="E5">
+        <v>5.249431907398186</v>
       </c>
       <c r="H5">
-        <v>5.798874498445107</v>
+        <v>12.78633090672586</v>
       </c>
       <c r="I5">
-        <v>9.542209733344354</v>
+        <v>5.420970453585282</v>
+      </c>
+      <c r="J5">
+        <v>5.910521023354884</v>
+      </c>
+      <c r="K5">
+        <v>5.19601827672724</v>
+      </c>
+      <c r="L5">
+        <v>6.450423727487175</v>
+      </c>
+      <c r="M5">
+        <v>4.620529924411946</v>
       </c>
       <c r="N5">
-        <v>7.625187053036124</v>
+        <v>5.088809303424254</v>
       </c>
       <c r="O5">
-        <v>8.695855107138366</v>
-      </c>
-      <c r="S5">
-        <v>9.520499317185454</v>
-      </c>
-      <c r="T5">
-        <v>4.795081759988069</v>
+        <v>9.24149442599759</v>
+      </c>
+      <c r="P5">
+        <v>6.372563163384341</v>
+      </c>
+      <c r="Q5">
+        <v>7.23336512135822</v>
+      </c>
+      <c r="R5">
+        <v>7.990854641814675</v>
+      </c>
+      <c r="U5">
+        <v>7.331614163491129</v>
       </c>
       <c r="V5">
-        <v>5.46834759292497</v>
+        <v>5.548360156029976</v>
       </c>
       <c r="W5">
-        <v>7.037960726804836</v>
-      </c>
-      <c r="X5">
-        <v>13.28371046207075</v>
-      </c>
-      <c r="Y5">
-        <v>5.35511242877954</v>
+        <v>6.587022301498191</v>
       </c>
       <c r="Z5">
-        <v>6.385977796605345</v>
-      </c>
-      <c r="AB5">
-        <v>3.97671935091394</v>
+        <v>4.866857886053693</v>
+      </c>
+      <c r="AA5">
+        <v>9.313901763882022</v>
       </c>
       <c r="AC5">
-        <v>4.951509826054977</v>
-      </c>
-      <c r="AD5">
-        <v>4.271583063875145</v>
-      </c>
-      <c r="AE5">
-        <v>7.086158278299256</v>
-      </c>
-      <c r="AH5">
-        <v>4.029917498872672</v>
+        <v>2.913482354341873</v>
+      </c>
+      <c r="AF5">
+        <v>6.565245313527701</v>
+      </c>
+      <c r="AG5">
+        <v>9.535956147512207</v>
       </c>
       <c r="AI5">
-        <v>5.570965675722874</v>
+        <v>5.44807125918981</v>
       </c>
       <c r="AJ5">
-        <v>7.619928468265149</v>
+        <v>6.009836360486844</v>
+      </c>
+      <c r="AK5">
+        <v>4.16420777204668</v>
       </c>
       <c r="AL5">
-        <v>4.42783322906526</v>
-      </c>
-      <c r="AO5">
-        <v>5.477010053533051</v>
+        <v>21.99654716392965</v>
+      </c>
+      <c r="AM5">
+        <v>6.695210300653621</v>
+      </c>
+      <c r="AN5">
+        <v>4.032548835557778</v>
       </c>
       <c r="AP5">
-        <v>8.223969009097885</v>
+        <v>5.61296112952331</v>
       </c>
       <c r="AQ5">
-        <v>21.67063686183496</v>
+        <v>5.460601021658504</v>
       </c>
       <c r="AR5">
-        <v>4.158473249253263</v>
+        <v>3.910662458378801</v>
       </c>
       <c r="AT5">
-        <v>11.74518437128531</v>
+        <v>3.641380097462272</v>
+      </c>
+      <c r="AU5">
+        <v>4.626793514848419</v>
       </c>
       <c r="AV5">
-        <v>5.834319514059003</v>
+        <v>4.982828517026244</v>
       </c>
       <c r="AW5">
-        <v>15.32611356723592</v>
+        <v>9.094764019584408</v>
       </c>
       <c r="AX5">
-        <v>6.003543687453848</v>
+        <v>3.042784579101498</v>
       </c>
       <c r="AY5">
-        <v>3.649187375252322</v>
+        <v>13.10922159470041</v>
       </c>
       <c r="AZ5">
-        <v>6.126196236566302</v>
+        <v>1.962911062084871</v>
       </c>
       <c r="BA5">
-        <v>5.531605066854677</v>
+        <v>15.45695901781706</v>
       </c>
       <c r="BB5">
-        <v>10.0262587034378</v>
+        <v>5.915092840700758</v>
       </c>
       <c r="BC5">
-        <v>8.495438889188502</v>
+        <v>7.43330395027977</v>
       </c>
       <c r="BD5">
-        <v>4.874477596895368</v>
+        <v>3.677355451576842</v>
       </c>
       <c r="BE5">
-        <v>6.148413923083861</v>
+        <v>3.17967238224555</v>
       </c>
       <c r="BF5">
-        <v>11.17762619050733</v>
+        <v>3.279173313295519</v>
+      </c>
+      <c r="BG5">
+        <v>1.54011178782309</v>
       </c>
       <c r="BH5">
-        <v>7.527327940737084</v>
+        <v>4.338133798160186</v>
       </c>
       <c r="BI5">
-        <v>3.983282671052797</v>
+        <v>3.567619525391907</v>
       </c>
       <c r="BJ5">
-        <v>4.990500526578614</v>
+        <v>8.465409703642733</v>
+      </c>
+      <c r="BK5">
+        <v>5.573772959816985</v>
       </c>
       <c r="BL5">
-        <v>7.035125516162641</v>
+        <v>4.736864584958505</v>
+      </c>
+      <c r="BM5">
+        <v>4.692528784543845</v>
+      </c>
+      <c r="BN5">
+        <v>7.263403087763264</v>
+      </c>
+      <c r="BO5">
+        <v>4.311692478048049</v>
       </c>
       <c r="BP5">
-        <v>11.04952350426278</v>
+        <v>3.43053945668031</v>
+      </c>
+      <c r="BQ5">
+        <v>3.158599384547861</v>
       </c>
       <c r="BR5">
-        <v>5.370574801500061</v>
+        <v>3.929854496319014</v>
       </c>
       <c r="BS5">
-        <v>10.39189114228294</v>
+        <v>5.438657615523435</v>
+      </c>
+      <c r="BT5">
+        <v>8.885279925099027</v>
       </c>
       <c r="BU5">
-        <v>5.655582945074021</v>
+        <v>6.432921103021906</v>
       </c>
       <c r="BV5">
-        <v>3.989077235275675</v>
+        <v>2.947823263057063</v>
+      </c>
+      <c r="BW5">
+        <v>4.193113208130395</v>
       </c>
       <c r="BX5">
-        <v>5.763728577188835</v>
+        <v>3.815733702561908</v>
       </c>
       <c r="BY5">
-        <v>13.5978947712115</v>
-      </c>
-      <c r="CA5">
-        <v>4.420660804917</v>
+        <v>2.974369856170724</v>
+      </c>
+      <c r="BZ5">
+        <v>4.891989211335133</v>
+      </c>
+      <c r="CB5">
+        <v>5.216366134920134</v>
       </c>
       <c r="CC5">
-        <v>4.275199921085363</v>
+        <v>2.333281552358004</v>
       </c>
       <c r="CD5">
-        <v>7.538522094206519</v>
+        <v>3.590593096497869</v>
       </c>
       <c r="CE5">
-        <v>8.329752419933506</v>
+        <v>2.994432184023991</v>
+      </c>
+      <c r="CF5">
+        <v>3.853265816080683</v>
+      </c>
+      <c r="CG5">
+        <v>4.229645057683699</v>
       </c>
       <c r="CH5">
-        <v>3.58171415747576</v>
+        <v>2.812845892518283</v>
+      </c>
+      <c r="CI5">
+        <v>2.280354743690557</v>
       </c>
       <c r="CK5">
-        <v>6.349909583774908</v>
+        <v>5.9915500206515</v>
+      </c>
+      <c r="CL5">
+        <v>3.260610331862367</v>
       </c>
       <c r="CM5">
-        <v>7.838437257956793</v>
+        <v>3.121056246364812</v>
       </c>
       <c r="CN5">
-        <v>3.588394964384287</v>
+        <v>2.8286616722</v>
+      </c>
+      <c r="CO5">
+        <v>7.084393763909477</v>
       </c>
       <c r="CP5">
-        <v>5.520929340966941</v>
+        <v>4.400164165453285</v>
+      </c>
+      <c r="CQ5">
+        <v>5.574358578530689</v>
+      </c>
+      <c r="CR5">
+        <v>2.54888911743233</v>
       </c>
       <c r="CS5">
-        <v>3.364194270917809</v>
+        <v>2.049597235743787</v>
+      </c>
+      <c r="CT5">
+        <v>2.634260393921583</v>
       </c>
       <c r="CU5">
-        <v>7.200605206381566</v>
+        <v>4.113951048973647</v>
+      </c>
+      <c r="CV5">
+        <v>5.727720004578007</v>
       </c>
       <c r="CW5">
-        <v>3.531199085631658</v>
+        <v>8.128902130290891</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.446616743285242</v>
-      </c>
-      <c r="C6">
-        <v>8.952118362845269</v>
+        <v>7.301502232030693</v>
       </c>
       <c r="D6">
-        <v>9.361826036776572</v>
+        <v>6.903144847386391</v>
+      </c>
+      <c r="E6">
+        <v>5.51439250974612</v>
       </c>
       <c r="F6">
-        <v>6.624683422121452</v>
-      </c>
-      <c r="G6">
-        <v>11.99284949719512</v>
+        <v>5.918238422589624</v>
       </c>
       <c r="H6">
-        <v>6.79538324785226</v>
+        <v>11.27514375325762</v>
       </c>
       <c r="I6">
-        <v>11.56709930837303</v>
+        <v>8.353382290173448</v>
       </c>
       <c r="J6">
-        <v>6.462985888714857</v>
+        <v>8.06104246272467</v>
+      </c>
+      <c r="K6">
+        <v>5.762569945919848</v>
+      </c>
+      <c r="L6">
+        <v>7.123350216935934</v>
       </c>
       <c r="M6">
-        <v>6.71167998747235</v>
+        <v>5.006238716573308</v>
       </c>
       <c r="N6">
-        <v>11.66055499443937</v>
+        <v>6.272340089190109</v>
+      </c>
+      <c r="O6">
+        <v>11.19668440146353</v>
+      </c>
+      <c r="P6">
+        <v>5.919126884294685</v>
       </c>
       <c r="Q6">
-        <v>7.55288085581161</v>
-      </c>
-      <c r="S6">
-        <v>8.464169084523492</v>
-      </c>
-      <c r="T6">
-        <v>6.207654661180396</v>
+        <v>11.01698770938384</v>
+      </c>
+      <c r="V6">
+        <v>10.66034706738606</v>
       </c>
       <c r="W6">
-        <v>8.005130505925516</v>
-      </c>
-      <c r="X6">
-        <v>11.85217431737628</v>
+        <v>9.682855432806836</v>
       </c>
       <c r="Y6">
-        <v>5.812220872202059</v>
+        <v>12.66437765668223</v>
+      </c>
+      <c r="Z6">
+        <v>4.84043249931123</v>
       </c>
       <c r="AA6">
-        <v>12.25705360738645</v>
-      </c>
-      <c r="AB6">
-        <v>4.488362796200164</v>
+        <v>13.51469521454482</v>
       </c>
       <c r="AC6">
-        <v>5.013911715419489</v>
+        <v>1.862273284329558</v>
       </c>
       <c r="AD6">
-        <v>5.29179800829411</v>
+        <v>26.99039094961616</v>
       </c>
       <c r="AE6">
-        <v>8.405905275584944</v>
+        <v>11.99157359321857</v>
+      </c>
+      <c r="AF6">
+        <v>7.572985529475207</v>
       </c>
       <c r="AG6">
-        <v>6.929134096411652</v>
+        <v>17.28447184625069</v>
       </c>
       <c r="AH6">
-        <v>5.392499707194205</v>
+        <v>10.9022967750015</v>
+      </c>
+      <c r="AI6">
+        <v>5.958783584756877</v>
       </c>
       <c r="AJ6">
-        <v>10.19271871597687</v>
+        <v>6.729278575309706</v>
       </c>
       <c r="AK6">
-        <v>5.547972548520981</v>
+        <v>7.038730356288536</v>
+      </c>
+      <c r="AL6">
+        <v>27.41277968083235</v>
       </c>
       <c r="AM6">
-        <v>9.803562010774566</v>
+        <v>7.99116970278744</v>
       </c>
       <c r="AN6">
-        <v>32.56638017876246</v>
+        <v>5.761608602132139</v>
       </c>
       <c r="AO6">
-        <v>7.269844284140404</v>
+        <v>20.58809179846585</v>
       </c>
       <c r="AP6">
-        <v>9.548943288188338</v>
+        <v>5.679636715528168</v>
       </c>
       <c r="AQ6">
-        <v>27.07782940676524</v>
+        <v>5.433916041193909</v>
       </c>
       <c r="AR6">
-        <v>5.457614388183436</v>
+        <v>4.810205462683784</v>
+      </c>
+      <c r="AS6">
+        <v>8.546036764169919</v>
+      </c>
+      <c r="AT6">
+        <v>4.258173523102099</v>
+      </c>
+      <c r="AU6">
+        <v>4.733749024073229</v>
       </c>
       <c r="AV6">
-        <v>6.316358763118688</v>
+        <v>6.096695619294628</v>
       </c>
       <c r="AW6">
-        <v>11.85873907232953</v>
+        <v>16.12376297629683</v>
       </c>
       <c r="AX6">
-        <v>6.961657691857229</v>
+        <v>3.183643421869561</v>
+      </c>
+      <c r="AY6">
+        <v>18.32450739830953</v>
+      </c>
+      <c r="AZ6">
+        <v>1.674017975961681</v>
       </c>
       <c r="BA6">
-        <v>5.939899684372024</v>
+        <v>10.82380904510565</v>
       </c>
       <c r="BB6">
-        <v>9.424174482025183</v>
+        <v>6.847343994903501</v>
+      </c>
+      <c r="BC6">
+        <v>8.747579548678347</v>
       </c>
       <c r="BD6">
-        <v>5.22413912962352</v>
+        <v>2.802330682035142</v>
       </c>
       <c r="BE6">
-        <v>6.940335344191436</v>
+        <v>3.715482414425126</v>
       </c>
       <c r="BF6">
-        <v>11.28576928975216</v>
+        <v>4.111288404085663</v>
       </c>
       <c r="BG6">
-        <v>5.697194031861719</v>
+        <v>2.184316826235932</v>
+      </c>
+      <c r="BH6">
+        <v>4.10409842620926</v>
       </c>
       <c r="BI6">
-        <v>4.710661317823972</v>
+        <v>3.709681077832871</v>
       </c>
       <c r="BJ6">
-        <v>7.243496277996846</v>
+        <v>6.753361949960564</v>
+      </c>
+      <c r="BK6">
+        <v>5.997866458099725</v>
       </c>
       <c r="BL6">
-        <v>7.597687227255485</v>
+        <v>3.85646160833253</v>
+      </c>
+      <c r="BM6">
+        <v>5.053332032778446</v>
+      </c>
+      <c r="BN6">
+        <v>9.837046587721234</v>
       </c>
       <c r="BO6">
-        <v>4.771537136220031</v>
+        <v>3.944566787693419</v>
+      </c>
+      <c r="BP6">
+        <v>4.092339770825725</v>
+      </c>
+      <c r="BQ6">
+        <v>2.639785244816325</v>
       </c>
       <c r="BR6">
-        <v>5.830400540694285</v>
+        <v>3.64178682392692</v>
       </c>
       <c r="BS6">
-        <v>11.48724197832007</v>
+        <v>6.042459915213966</v>
+      </c>
+      <c r="BT6">
+        <v>8.1334993637883</v>
       </c>
       <c r="BU6">
-        <v>5.844561637935785</v>
+        <v>6.700729980676625</v>
       </c>
       <c r="BV6">
-        <v>4.227939616738071</v>
+        <v>3.679224424781479</v>
+      </c>
+      <c r="BW6">
+        <v>6.295265415773707</v>
       </c>
       <c r="BX6">
-        <v>5.762303593979757</v>
+        <v>3.602121955588194</v>
       </c>
       <c r="BY6">
-        <v>19.73688698769364</v>
+        <v>4.333160614080499</v>
+      </c>
+      <c r="BZ6">
+        <v>5.267959573126779</v>
       </c>
       <c r="CA6">
-        <v>5.060159322763931</v>
+        <v>6.282807431392477</v>
+      </c>
+      <c r="CB6">
+        <v>6.984901812580754</v>
       </c>
       <c r="CC6">
-        <v>8.51172754588462</v>
+        <v>3.413243694190781</v>
       </c>
       <c r="CD6">
-        <v>5.517996702446209</v>
+        <v>3.251293764992496</v>
       </c>
       <c r="CE6">
-        <v>9.345855521001811</v>
+        <v>3.208172910223408</v>
       </c>
       <c r="CF6">
-        <v>4.479794329722051</v>
+        <v>4.645812554229557</v>
+      </c>
+      <c r="CG6">
+        <v>5.856634123927407</v>
       </c>
       <c r="CH6">
-        <v>6.009326941802173</v>
+        <v>3.928240488094168</v>
       </c>
       <c r="CI6">
-        <v>4.986684812549044</v>
+        <v>2.025354995717966</v>
       </c>
       <c r="CJ6">
-        <v>5.567820771845737</v>
+        <v>4.718686070678195</v>
       </c>
       <c r="CK6">
-        <v>8.497359227721709</v>
+        <v>6.26201392486504</v>
       </c>
       <c r="CL6">
-        <v>4.841932963439405</v>
+        <v>3.900650610886476</v>
       </c>
       <c r="CM6">
-        <v>6.983320176225656</v>
+        <v>3.377421651188098</v>
       </c>
       <c r="CN6">
-        <v>4.847785342760953</v>
+        <v>3.521039581351581</v>
+      </c>
+      <c r="CO6">
+        <v>5.58116196567182</v>
       </c>
       <c r="CP6">
-        <v>4.898643356712254</v>
+        <v>5.027855671775087</v>
       </c>
       <c r="CQ6">
-        <v>3.744922155980868</v>
+        <v>3.831858698146079</v>
+      </c>
+      <c r="CR6">
+        <v>2.996374849913086</v>
       </c>
       <c r="CS6">
-        <v>3.898132983220484</v>
+        <v>3.132950145162453</v>
       </c>
       <c r="CT6">
-        <v>3.864075213202274</v>
+        <v>3.596245686544707</v>
+      </c>
+      <c r="CU6">
+        <v>7.376116828930011</v>
+      </c>
+      <c r="CV6">
+        <v>4.941647130426868</v>
+      </c>
+      <c r="CW6">
+        <v>12.32746890812481</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6.933733183212879</v>
-      </c>
       <c r="C7">
-        <v>7.028175825454895</v>
+        <v>9.319829493121675</v>
       </c>
       <c r="D7">
-        <v>6.767588387504579</v>
+        <v>5.60719484512321</v>
+      </c>
+      <c r="E7">
+        <v>5.899330426580007</v>
       </c>
       <c r="F7">
-        <v>7.111809172021007</v>
-      </c>
-      <c r="G7">
-        <v>8.460740002835811</v>
+        <v>4.509729342457903</v>
       </c>
       <c r="H7">
-        <v>7.281895329706755</v>
-      </c>
-      <c r="I7">
-        <v>8.858764550095399</v>
+        <v>9.690473996892823</v>
+      </c>
+      <c r="J7">
+        <v>6.185565751915984</v>
+      </c>
+      <c r="K7">
+        <v>6.000347626767552</v>
       </c>
       <c r="L7">
-        <v>4.347873868156569</v>
+        <v>6.046520618058812</v>
+      </c>
+      <c r="M7">
+        <v>5.306170218753963</v>
       </c>
       <c r="N7">
-        <v>6.477933090078893</v>
-      </c>
-      <c r="R7">
-        <v>5.539496684528112</v>
+        <v>6.601987979567772</v>
+      </c>
+      <c r="O7">
+        <v>8.331416815784662</v>
+      </c>
+      <c r="P7">
+        <v>5.801252873727706</v>
+      </c>
+      <c r="Q7">
+        <v>6.044857307459329</v>
       </c>
       <c r="T7">
-        <v>5.35395064081662</v>
+        <v>15.57321907479714</v>
+      </c>
+      <c r="U7">
+        <v>6.631096192586972</v>
       </c>
       <c r="V7">
-        <v>6.520663682563804</v>
-      </c>
-      <c r="X7">
-        <v>10.49738993488335</v>
+        <v>7.43548726527138</v>
+      </c>
+      <c r="W7">
+        <v>6.066549508007581</v>
       </c>
       <c r="Y7">
-        <v>6.474085312812685</v>
+        <v>8.685525560132284</v>
       </c>
       <c r="Z7">
-        <v>8.723310541217522</v>
+        <v>6.10165947250468</v>
       </c>
       <c r="AA7">
-        <v>7.443350649301133</v>
+        <v>6.592469702024431</v>
       </c>
       <c r="AC7">
-        <v>5.212266074613152</v>
-      </c>
-      <c r="AD7">
-        <v>5.116862246401411</v>
+        <v>3.116450980775374</v>
       </c>
       <c r="AE7">
-        <v>6.086922872630838</v>
+        <v>7.825595794046458</v>
+      </c>
+      <c r="AF7">
+        <v>6.632925334435984</v>
+      </c>
+      <c r="AG7">
+        <v>11.80795767181322</v>
       </c>
       <c r="AH7">
-        <v>4.828960799774832</v>
+        <v>6.947174612338335</v>
       </c>
       <c r="AI7">
-        <v>5.716527803820272</v>
+        <v>5.216974770086861</v>
       </c>
       <c r="AJ7">
-        <v>6.888456707841168</v>
+        <v>6.198771657892371</v>
       </c>
       <c r="AK7">
-        <v>6.40250881135096</v>
+        <v>4.10859160715823</v>
       </c>
       <c r="AL7">
-        <v>4.393010821748549</v>
+        <v>24.48673040591572</v>
       </c>
       <c r="AM7">
-        <v>7.537767810483808</v>
+        <v>8.076465301041791</v>
       </c>
       <c r="AO7">
-        <v>4.276854695162571</v>
+        <v>11.47723121348607</v>
       </c>
       <c r="AP7">
-        <v>7.605534018094295</v>
+        <v>5.525587305601524</v>
       </c>
       <c r="AQ7">
-        <v>23.86234542656277</v>
+        <v>8.645116906093085</v>
       </c>
       <c r="AR7">
-        <v>4.42479438519814</v>
+        <v>5.345022123587023</v>
+      </c>
+      <c r="AS7">
+        <v>6.798664585257058</v>
       </c>
       <c r="AT7">
-        <v>7.805848547129648</v>
+        <v>4.029026803844049</v>
+      </c>
+      <c r="AU7">
+        <v>4.466200309890421</v>
       </c>
       <c r="AV7">
-        <v>6.605103919309237</v>
+        <v>4.773104743889017</v>
       </c>
       <c r="AW7">
-        <v>13.08800868090418</v>
+        <v>12.91699075398946</v>
       </c>
       <c r="AX7">
-        <v>3.867860356334416</v>
+        <v>4.34521694606511</v>
+      </c>
+      <c r="AY7">
+        <v>13.96673251880681</v>
       </c>
       <c r="AZ7">
-        <v>6.153889449328226</v>
+        <v>2.166356546369481</v>
       </c>
       <c r="BA7">
-        <v>6.211507620718028</v>
+        <v>15.17774916690202</v>
       </c>
       <c r="BB7">
-        <v>7.879863706908084</v>
+        <v>6.060300288053423</v>
       </c>
       <c r="BC7">
-        <v>7.850836430491118</v>
+        <v>6.230639819106901</v>
+      </c>
+      <c r="BD7">
+        <v>4.125816413495347</v>
       </c>
       <c r="BE7">
-        <v>6.36878303604159</v>
+        <v>3.885857186437448</v>
       </c>
       <c r="BF7">
-        <v>9.185194204897536</v>
+        <v>3.589978709992556</v>
       </c>
       <c r="BG7">
-        <v>4.871322738319035</v>
+        <v>2.069832445474005</v>
+      </c>
+      <c r="BH7">
+        <v>3.083003200598137</v>
       </c>
       <c r="BI7">
-        <v>4.648185584999576</v>
+        <v>4.160963378800124</v>
       </c>
       <c r="BJ7">
-        <v>5.381543170272304</v>
+        <v>7.339175700544702</v>
+      </c>
+      <c r="BK7">
+        <v>4.332767569669091</v>
       </c>
       <c r="BL7">
-        <v>7.026121259947224</v>
+        <v>4.287312111840262</v>
       </c>
       <c r="BM7">
-        <v>5.384609523131044</v>
+        <v>3.091505388123083</v>
+      </c>
+      <c r="BN7">
+        <v>6.710743959052248</v>
+      </c>
+      <c r="BO7">
+        <v>4.537035869292466</v>
+      </c>
+      <c r="BP7">
+        <v>2.24263918686759</v>
+      </c>
+      <c r="BQ7">
+        <v>3.013508316895319</v>
       </c>
       <c r="BR7">
-        <v>5.874679225290869</v>
+        <v>3.326348899470916</v>
       </c>
       <c r="BS7">
-        <v>11.41541424143272</v>
+        <v>4.227191390720219</v>
       </c>
       <c r="BT7">
-        <v>5.798174718053518</v>
+        <v>6.592921418253058</v>
       </c>
       <c r="BU7">
-        <v>4.815069745825976</v>
+        <v>5.744949981700817</v>
       </c>
       <c r="BV7">
-        <v>4.643541948605761</v>
+        <v>3.078264573853219</v>
       </c>
       <c r="BW7">
-        <v>4.836348181604093</v>
+        <v>4.54171750385951</v>
       </c>
       <c r="BX7">
-        <v>5.228674804080169</v>
-      </c>
-      <c r="CA7">
-        <v>4.737448295450936</v>
+        <v>4.019888770950728</v>
+      </c>
+      <c r="BY7">
+        <v>3.424259799804634</v>
+      </c>
+      <c r="BZ7">
+        <v>5.579123356565612</v>
       </c>
       <c r="CB7">
-        <v>3.907571279630207</v>
+        <v>4.266701780717127</v>
       </c>
       <c r="CC7">
-        <v>7.203260535568697</v>
+        <v>2.030811468625609</v>
       </c>
       <c r="CD7">
-        <v>5.842848142514151</v>
+        <v>3.637872568095154</v>
       </c>
       <c r="CE7">
-        <v>7.269179294385627</v>
+        <v>3.497096899398807</v>
       </c>
       <c r="CF7">
-        <v>3.583853218083599</v>
+        <v>3.146439483327992</v>
       </c>
       <c r="CG7">
-        <v>4.287639620767522</v>
+        <v>4.477031956591933</v>
       </c>
       <c r="CH7">
-        <v>3.321929251174896</v>
-      </c>
-      <c r="CJ7">
-        <v>5.219812233104856</v>
+        <v>4.00841793956752</v>
+      </c>
+      <c r="CI7">
+        <v>1.801036440368528</v>
       </c>
       <c r="CK7">
-        <v>6.094429965821637</v>
+        <v>7.805586911639941</v>
+      </c>
+      <c r="CL7">
+        <v>3.566787476535845</v>
       </c>
       <c r="CM7">
-        <v>7.767766508342737</v>
+        <v>3.303734785728885</v>
       </c>
       <c r="CN7">
-        <v>4.647983270945836</v>
+        <v>3.180097620123092</v>
+      </c>
+      <c r="CO7">
+        <v>5.72805156278841</v>
       </c>
       <c r="CP7">
-        <v>6.316826049616135</v>
+        <v>5.274100185787559</v>
       </c>
       <c r="CQ7">
-        <v>3.30957534390455</v>
+        <v>3.632246784391977</v>
+      </c>
+      <c r="CR7">
+        <v>2.875737255644172</v>
       </c>
       <c r="CS7">
-        <v>3.625463651581936</v>
+        <v>2.688402526719035</v>
+      </c>
+      <c r="CT7">
+        <v>3.998978624974639</v>
+      </c>
+      <c r="CU7">
+        <v>3.945363851857094</v>
+      </c>
+      <c r="CV7">
+        <v>4.123828037060801</v>
       </c>
       <c r="CW7">
-        <v>3.886373465849866</v>
+        <v>13.85079943888765</v>
       </c>
     </row>
   </sheetData>
